--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86999.57293643062</v>
+        <v>89013.75934376553</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20002932.62808474</v>
+        <v>20060381.09850432</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10509092.07651444</v>
+        <v>10565397.32237267</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5260736.619636956</v>
+        <v>5218593.609667747</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -671,10 +673,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>136.5235130190835</v>
       </c>
       <c r="U2" t="n">
-        <v>252.8252773014387</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -744,7 +746,7 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897921</v>
+        <v>103.6549143897922</v>
       </c>
       <c r="F3" t="n">
         <v>92.70937201392488</v>
@@ -753,7 +755,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>65.76953573495733</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>90.90586913785502</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>198.1089584277985</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>106.3192265349073</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +992,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H6" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1054,22 +1056,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>82.89765386452734</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>19.20130855525859</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1133,7 +1135,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>257.9043415482322</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>96.602636616354</v>
       </c>
     </row>
     <row r="9">
@@ -1227,7 +1229,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H9" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1291,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>68.83205621563052</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>19.20130855525859</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>136.0921303042371</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>113.3010685731255</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>65.76953573495733</v>
+        <v>65.7695357349571</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1616,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -1664,13 +1666,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>62.18324847014028</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>137.0099033214101</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>88.66266823451896</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>68.83205621563029</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1844,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>121.34815037781</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>169.4019074491786</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2017,10 +2019,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>29.51612010431243</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>19.20130855525859</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2081,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>169.93492922481</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2096,7 +2098,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>74.0316976127545</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>115.7056050699392</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>156.3950745845503</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2318,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
@@ -2330,10 +2332,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>95.37952295492882</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>132.9514849391005</v>
       </c>
     </row>
     <row r="24">
@@ -2476,16 +2478,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>51.58543740429392</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>252.4313342548277</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>131.975558987749</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>137.0099033214103</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2725,10 +2727,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>49.4727688950367</v>
       </c>
       <c r="H28" t="n">
-        <v>53.59658616975693</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>232.3024717866956</v>
       </c>
       <c r="H29" t="n">
-        <v>111.6315604592569</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2950,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>7.528125734399141</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3007,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>92.61595703282889</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3192265349075</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>349.0734308198837</v>
       </c>
     </row>
     <row r="33">
@@ -3190,7 +3192,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3202,7 +3204,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>34.79484432979901</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>196.478449474296</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3269,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>220.9348506042465</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -3284,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>301.7040542002381</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3362,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H36" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>34.10882961484759</v>
+        <v>246.7246205536295</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3503,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>146.2216260876643</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>267.0131914671754</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>75.45211747496617</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>34.79484432979901</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>163.1680710301378</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.77132399094423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3898,22 +3900,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>68.83205621562998</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>34.79484432979901</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3980,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>380.884638193553</v>
       </c>
       <c r="E44" t="n">
-        <v>175.842604613745</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4065,13 +4067,13 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T45" t="n">
         <v>140.4611363452985</v>
@@ -4122,7 +4124,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y45" t="n">
-        <v>89.46376024411644</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="46">
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>139.485173022116</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>15.3763863912375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4201,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.220555060086</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.220555060086</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D2" t="n">
-        <v>1590.220555060086</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E2" t="n">
-        <v>1164.243615207943</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F2" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G2" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K2" t="n">
-        <v>856.3013579804531</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L2" t="n">
-        <v>1313.087264683184</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M2" t="n">
-        <v>1728.043288159434</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="N2" t="n">
-        <v>1728.043288159434</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O2" t="n">
-        <v>1728.043288159434</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P2" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R2" t="n">
         <v>1845.599623041337</v>
@@ -4358,22 +4360,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1707.697084638222</v>
       </c>
       <c r="U2" t="n">
-        <v>1590.220555060086</v>
+        <v>1707.697084638222</v>
       </c>
       <c r="V2" t="n">
-        <v>1590.220555060086</v>
+        <v>1707.697084638222</v>
       </c>
       <c r="W2" t="n">
-        <v>1590.220555060086</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="X2" t="n">
-        <v>1590.220555060086</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="Y2" t="n">
-        <v>1590.220555060086</v>
+        <v>1311.305734938569</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D3" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J3" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K3" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L3" t="n">
-        <v>765.3953884431487</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M3" t="n">
-        <v>850.0084995511718</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N3" t="n">
-        <v>850.0084995511718</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O3" t="n">
-        <v>1306.794406253903</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4437,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4446,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="4">
@@ -4483,7 +4485,7 @@
         <v>136.6805607205508</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J4" t="n">
         <v>94.40332068498475</v>
@@ -4498,34 +4500,34 @@
         <v>1066.806038155494</v>
       </c>
       <c r="N4" t="n">
-        <v>1444.297549031529</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O4" t="n">
-        <v>1799.725677711293</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T4" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U4" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="V4" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="W4" t="n">
-        <v>1779.165748561582</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="X4" t="n">
         <v>1536.601852007387</v>
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1068.261843876056</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="C5" t="n">
-        <v>641.3611138893564</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D5" t="n">
-        <v>641.3611138893564</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E5" t="n">
-        <v>641.3611138893564</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F5" t="n">
-        <v>641.3611138893564</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G5" t="n">
-        <v>237.022051478805</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J5" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
+        <v>399.5154512777223</v>
+      </c>
+      <c r="L5" t="n">
         <v>856.3013579804531</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>1313.087264683184</v>
       </c>
-      <c r="M5" t="n">
-        <v>1389.514143537154</v>
-      </c>
       <c r="N5" t="n">
-        <v>1389.514143537154</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.514143537154</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P5" t="n">
-        <v>1389.514143537154</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
@@ -4601,16 +4603,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.110208167586</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W5" t="n">
-        <v>1488.110208167586</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X5" t="n">
-        <v>1488.110208167586</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1488.110208167586</v>
+        <v>1738.206464925269</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J6" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K6" t="n">
-        <v>36.91199246082674</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L6" t="n">
-        <v>36.91199246082674</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M6" t="n">
-        <v>393.2225928484409</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N6" t="n">
-        <v>850.0084995511718</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O6" t="n">
-        <v>850.0084995511718</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4674,7 +4676,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U6" t="n">
         <v>1437.627243819906</v>
@@ -4683,13 +4685,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>302.8887665676972</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C7" t="n">
-        <v>302.8887665676972</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D7" t="n">
-        <v>302.8887665676972</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E7" t="n">
-        <v>136.6805607205508</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F7" t="n">
-        <v>136.6805607205508</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G7" t="n">
-        <v>136.6805607205508</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H7" t="n">
         <v>136.6805607205508</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K7" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>1009.314709931336</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N7" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119436</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P7" t="n">
         <v>1845.599623041337</v>
@@ -4747,28 +4749,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S7" t="n">
-        <v>1761.864619137774</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T7" t="n">
-        <v>1518.525271363674</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U7" t="n">
-        <v>1518.525271363674</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="V7" t="n">
-        <v>1236.813803971703</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="W7" t="n">
-        <v>961.9614001442158</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X7" t="n">
-        <v>719.3975035900208</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y7" t="n">
-        <v>493.0547352797628</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1020.413988704697</v>
+        <v>1328.172837925207</v>
       </c>
       <c r="C8" t="n">
-        <v>1020.413988704697</v>
+        <v>901.2721079385067</v>
       </c>
       <c r="D8" t="n">
-        <v>1020.413988704697</v>
+        <v>901.2721079385067</v>
       </c>
       <c r="E8" t="n">
-        <v>1020.413988704697</v>
+        <v>901.2721079385067</v>
       </c>
       <c r="F8" t="n">
-        <v>595.2898068940972</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="G8" t="n">
-        <v>334.7803709867919</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K8" t="n">
-        <v>815.1719019525203</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L8" t="n">
-        <v>1271.957808655251</v>
+        <v>475.942330131692</v>
       </c>
       <c r="M8" t="n">
-        <v>1271.957808655251</v>
+        <v>475.942330131692</v>
       </c>
       <c r="N8" t="n">
-        <v>1271.957808655251</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="O8" t="n">
-        <v>1271.957808655251</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="P8" t="n">
-        <v>1271.957808655251</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
@@ -4847,7 +4849,7 @@
         <v>1845.599623041337</v>
       </c>
       <c r="Y8" t="n">
-        <v>1440.262352996227</v>
+        <v>1748.021202216737</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K9" t="n">
-        <v>393.2225928484409</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L9" t="n">
-        <v>850.0084995511718</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M9" t="n">
-        <v>850.0084995511718</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N9" t="n">
-        <v>850.0084995511718</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O9" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P9" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4911,7 +4913,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U9" t="n">
         <v>1437.627243819906</v>
@@ -4920,13 +4922,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.91199246082674</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C10" t="n">
-        <v>36.91199246082674</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D10" t="n">
-        <v>36.91199246082674</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E10" t="n">
-        <v>36.91199246082674</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F10" t="n">
-        <v>36.91199246082674</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K10" t="n">
-        <v>76.20565529896515</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933859</v>
+        <v>391.6013137552475</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>782.7871087254983</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1160.278619601534</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1515.706748281297</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>1806.305960203198</v>
       </c>
       <c r="Q10" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S10" t="n">
-        <v>1776.072293530599</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T10" t="n">
-        <v>1532.732945756499</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U10" t="n">
-        <v>1252.548497256803</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="V10" t="n">
-        <v>970.8370298648322</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="W10" t="n">
-        <v>695.9846260373453</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X10" t="n">
-        <v>453.4207294831504</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y10" t="n">
-        <v>227.0779611728924</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>933.1209803825714</v>
+        <v>1425.751258749807</v>
       </c>
       <c r="C11" t="n">
-        <v>933.1209803825714</v>
+        <v>1425.751258749807</v>
       </c>
       <c r="D11" t="n">
-        <v>933.1209803825714</v>
+        <v>1002.458637934807</v>
       </c>
       <c r="E11" t="n">
-        <v>507.1440405304289</v>
+        <v>576.4816980826644</v>
       </c>
       <c r="F11" t="n">
-        <v>507.1440405304289</v>
+        <v>151.3575162720646</v>
       </c>
       <c r="G11" t="n">
-        <v>369.6772422433207</v>
+        <v>151.3575162720646</v>
       </c>
       <c r="H11" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J11" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K11" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L11" t="n">
-        <v>814.4714747539724</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M11" t="n">
-        <v>1271.257381456703</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N11" t="n">
-        <v>1728.043288159434</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="O11" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P11" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q11" t="n">
         <v>1728.043288159434</v>
@@ -5066,25 +5068,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S11" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T11" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U11" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V11" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W11" t="n">
-        <v>1344.840979214824</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X11" t="n">
-        <v>933.1209803825714</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y11" t="n">
-        <v>933.1209803825714</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C12" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E12" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F12" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H12" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I12" t="n">
-        <v>44.35863542273854</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J12" t="n">
-        <v>316.0561247023296</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K12" t="n">
-        <v>316.0561247023296</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L12" t="n">
-        <v>316.0561247023296</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="M12" t="n">
-        <v>772.8420314050604</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="N12" t="n">
-        <v>1229.627938107791</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O12" t="n">
-        <v>1686.413844810522</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P12" t="n">
-        <v>1763.580312956634</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="Q12" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R12" t="n">
         <v>1845.599623041337</v>
@@ -5148,7 +5150,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U12" t="n">
         <v>1437.627243819906</v>
@@ -5157,13 +5159,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W12" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X12" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y12" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="13">
@@ -5194,25 +5196,25 @@
         <v>136.6805607205508</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K13" t="n">
-        <v>36.91199246082674</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6013137552475</v>
+        <v>303.8948463526237</v>
       </c>
       <c r="M13" t="n">
-        <v>695.080641322875</v>
+        <v>695.0806413228745</v>
       </c>
       <c r="N13" t="n">
-        <v>1072.572152198911</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O13" t="n">
-        <v>1428.000280878674</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P13" t="n">
         <v>1718.599492800575</v>
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1199.140486464472</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="C14" t="n">
-        <v>1199.140486464472</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="D14" t="n">
-        <v>1199.140486464472</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="E14" t="n">
-        <v>1199.140486464472</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="F14" t="n">
-        <v>774.0163046538721</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="G14" t="n">
         <v>369.6772422433207</v>
       </c>
       <c r="H14" t="n">
-        <v>71.80886371735554</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J14" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K14" t="n">
-        <v>399.5154512777223</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L14" t="n">
-        <v>399.5154512777223</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="M14" t="n">
-        <v>399.5154512777223</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N14" t="n">
-        <v>815.1719019525203</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O14" t="n">
-        <v>815.1719019525203</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P14" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q14" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R14" t="n">
         <v>1845.599623041337</v>
@@ -5309,19 +5311,19 @@
         <v>1520.30675795911</v>
       </c>
       <c r="U14" t="n">
-        <v>1261.951848555523</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="V14" t="n">
-        <v>1199.140486464472</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="W14" t="n">
-        <v>1199.140486464472</v>
+        <v>508.0710839821188</v>
       </c>
       <c r="X14" t="n">
-        <v>1199.140486464472</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="Y14" t="n">
-        <v>1199.140486464472</v>
+        <v>369.6772422433207</v>
       </c>
     </row>
     <row r="15">
@@ -5337,43 +5339,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E15" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K15" t="n">
-        <v>475.2419029331439</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L15" t="n">
-        <v>475.2419029331439</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M15" t="n">
-        <v>932.0278096358747</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N15" t="n">
         <v>1388.813716338606</v>
       </c>
       <c r="O15" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P15" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q15" t="n">
         <v>1845.599623041337</v>
@@ -5410,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>126.4702432027651</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="C16" t="n">
-        <v>126.4702432027651</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D16" t="n">
-        <v>126.4702432027651</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E16" t="n">
-        <v>126.4702432027651</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F16" t="n">
-        <v>126.4702432027651</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G16" t="n">
-        <v>126.4702432027651</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K16" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L16" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M16" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N16" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O16" t="n">
-        <v>1555.000411119436</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P16" t="n">
         <v>1845.599623041337</v>
@@ -5461,25 +5463,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S16" t="n">
-        <v>1675.464575560472</v>
+        <v>1776.072293530599</v>
       </c>
       <c r="T16" t="n">
-        <v>1432.125227786372</v>
+        <v>1532.732945756499</v>
       </c>
       <c r="U16" t="n">
-        <v>1151.940779286676</v>
+        <v>1252.548497256803</v>
       </c>
       <c r="V16" t="n">
-        <v>870.229311894705</v>
+        <v>970.8370298648322</v>
       </c>
       <c r="W16" t="n">
-        <v>595.376908067218</v>
+        <v>695.9846260373453</v>
       </c>
       <c r="X16" t="n">
-        <v>352.8130115130231</v>
+        <v>453.4207294831504</v>
       </c>
       <c r="Y16" t="n">
-        <v>126.4702432027651</v>
+        <v>227.0779611728924</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>866.3752366819779</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="C17" t="n">
-        <v>866.3752366819779</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D17" t="n">
-        <v>866.3752366819779</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E17" t="n">
-        <v>866.3752366819779</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F17" t="n">
-        <v>441.2510548713781</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L17" t="n">
+        <v>36.91199246082673</v>
+      </c>
+      <c r="M17" t="n">
         <v>493.6978991635576</v>
       </c>
-      <c r="M17" t="n">
-        <v>950.4838058662885</v>
-      </c>
       <c r="N17" t="n">
+        <v>950.4838058662883</v>
+      </c>
+      <c r="O17" t="n">
         <v>1388.813716338606</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1845.599623041337</v>
       </c>
       <c r="P17" t="n">
         <v>1845.599623041337</v>
@@ -5549,16 +5551,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V17" t="n">
-        <v>1674.486585213884</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W17" t="n">
-        <v>1278.095235514231</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X17" t="n">
-        <v>866.3752366819779</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y17" t="n">
-        <v>866.3752366819779</v>
+        <v>1433.879624209084</v>
       </c>
     </row>
     <row r="18">
@@ -5574,46 +5576,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E18" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F18" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J18" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K18" t="n">
-        <v>308.6094817404178</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L18" t="n">
-        <v>308.6094817404178</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M18" t="n">
-        <v>308.6094817404178</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N18" t="n">
-        <v>765.3953884431487</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O18" t="n">
-        <v>1222.18129514588</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P18" t="n">
-        <v>1678.967201848611</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q18" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R18" t="n">
         <v>1845.599623041337</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>906.3425409651227</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C19" t="n">
-        <v>734.3699778440387</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D19" t="n">
-        <v>571.0532049708094</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E19" t="n">
-        <v>404.8449991236629</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F19" t="n">
-        <v>232.9832248982233</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G19" t="n">
-        <v>66.72625519245545</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J19" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K19" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L19" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M19" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N19" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O19" t="n">
-        <v>1555.000411119436</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="P19" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q19" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R19" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S19" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T19" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U19" t="n">
-        <v>1565.415174541641</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="V19" t="n">
-        <v>1565.415174541641</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="W19" t="n">
-        <v>1565.415174541641</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X19" t="n">
-        <v>1322.851277987446</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1096.508509677188</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2150.131759924241</v>
+        <v>1335.895058869367</v>
       </c>
       <c r="C20" t="n">
-        <v>1723.231029937541</v>
+        <v>1335.895058869367</v>
       </c>
       <c r="D20" t="n">
-        <v>1299.938409122541</v>
+        <v>1335.895058869367</v>
       </c>
       <c r="E20" t="n">
-        <v>873.9614692703988</v>
+        <v>1164.243615207943</v>
       </c>
       <c r="F20" t="n">
-        <v>448.8372874597989</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924753</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J20" t="n">
-        <v>407.101683866143</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K20" t="n">
-        <v>407.101683866143</v>
+        <v>358.3859952497894</v>
       </c>
       <c r="L20" t="n">
-        <v>407.101683866143</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="M20" t="n">
-        <v>407.101683866143</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="N20" t="n">
-        <v>549.9383681074144</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="O20" t="n">
-        <v>1100.603903091853</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P20" t="n">
-        <v>1651.269438076291</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580474</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462377</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462377</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U20" t="n">
-        <v>2150.131759924241</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V20" t="n">
-        <v>2150.131759924241</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W20" t="n">
-        <v>2150.131759924241</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X20" t="n">
-        <v>2150.131759924241</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="Y20" t="n">
-        <v>2150.131759924241</v>
+        <v>1335.895058869367</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>611.6217160807028</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C21" t="n">
-        <v>494.1158125982075</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134926</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864298</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F21" t="n">
-        <v>191.928090069334</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693795</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L21" t="n">
-        <v>595.1637600336857</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M21" t="n">
-        <v>1145.829295018124</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N21" t="n">
-        <v>1696.494830002562</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="O21" t="n">
-        <v>1696.494830002562</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="P21" t="n">
-        <v>1853.185855629757</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="Q21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S21" t="n">
-        <v>1771.861608191012</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T21" t="n">
-        <v>1629.98167248869</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U21" t="n">
-        <v>1445.213476408327</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V21" t="n">
-        <v>1240.240337547593</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W21" t="n">
-        <v>1043.71896038081</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X21" t="n">
-        <v>880.2416141474731</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y21" t="n">
-        <v>740.5487255007655</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1127.679347573484</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="C22" t="n">
-        <v>955.7067844524004</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="D22" t="n">
-        <v>792.3900115791711</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="E22" t="n">
-        <v>626.1818057320246</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F22" t="n">
-        <v>454.3200315065851</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G22" t="n">
-        <v>288.0630618008172</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H22" t="n">
-        <v>144.2667933089716</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J22" t="n">
-        <v>101.9895532734055</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K22" t="n">
-        <v>328.5171544792427</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L22" t="n">
-        <v>683.2064757736634</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M22" t="n">
-        <v>1074.392270743914</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N22" t="n">
-        <v>1451.88378161995</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O22" t="n">
-        <v>1807.311910299713</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P22" t="n">
-        <v>2097.911122221614</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q22" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R22" t="n">
-        <v>2224.911252462376</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S22" t="n">
-        <v>2224.911252462376</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T22" t="n">
-        <v>2224.911252462376</v>
+        <v>1681.686661173016</v>
       </c>
       <c r="U22" t="n">
-        <v>1944.72680396268</v>
+        <v>1401.50221267332</v>
       </c>
       <c r="V22" t="n">
-        <v>1944.72680396268</v>
+        <v>1119.790745281349</v>
       </c>
       <c r="W22" t="n">
-        <v>1786.751981150003</v>
+        <v>844.9383414538618</v>
       </c>
       <c r="X22" t="n">
-        <v>1544.188084595808</v>
+        <v>844.9383414538618</v>
       </c>
       <c r="Y22" t="n">
-        <v>1317.84531628555</v>
+        <v>618.5955731436038</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1819.573982417267</v>
+        <v>1314.913844110269</v>
       </c>
       <c r="C23" t="n">
-        <v>1819.573982417267</v>
+        <v>888.013114123569</v>
       </c>
       <c r="D23" t="n">
-        <v>1396.281361602267</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E23" t="n">
-        <v>970.3044217501248</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F23" t="n">
-        <v>545.180239939525</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G23" t="n">
-        <v>140.8411775289736</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J23" t="n">
-        <v>44.49822504924753</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K23" t="n">
-        <v>595.1637600336857</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L23" t="n">
-        <v>1123.5801824935</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M23" t="n">
-        <v>1674.245717477938</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="N23" t="n">
-        <v>1674.245717477938</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="O23" t="n">
-        <v>2224.911252462377</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="P23" t="n">
-        <v>2224.911252462377</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q23" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V23" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W23" t="n">
-        <v>2224.911252462377</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="X23" t="n">
-        <v>2224.911252462377</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="Y23" t="n">
-        <v>1819.573982417267</v>
+        <v>1314.913844110269</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>611.6217160807028</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C24" t="n">
-        <v>494.1158125982075</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D24" t="n">
-        <v>390.2758541134926</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E24" t="n">
-        <v>285.5739203864298</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F24" t="n">
-        <v>191.928090069334</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693795</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I24" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J24" t="n">
-        <v>201.1892506764427</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K24" t="n">
-        <v>201.1892506764427</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L24" t="n">
-        <v>201.1892506764427</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M24" t="n">
-        <v>751.8547856608809</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N24" t="n">
-        <v>1302.520320645319</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O24" t="n">
-        <v>1302.520320645319</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P24" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q24" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R24" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S24" t="n">
-        <v>1771.861608191012</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T24" t="n">
-        <v>1629.98167248869</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U24" t="n">
-        <v>1445.213476408327</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V24" t="n">
-        <v>1240.240337547593</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W24" t="n">
-        <v>1043.71896038081</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X24" t="n">
-        <v>880.2416141474731</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y24" t="n">
-        <v>740.5487255007655</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>268.5772905989112</v>
+        <v>374.9819725334128</v>
       </c>
       <c r="C25" t="n">
-        <v>96.60472747782725</v>
+        <v>374.9819725334128</v>
       </c>
       <c r="D25" t="n">
-        <v>44.49822504924753</v>
+        <v>374.9819725334128</v>
       </c>
       <c r="E25" t="n">
-        <v>44.49822504924753</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F25" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G25" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H25" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J25" t="n">
-        <v>101.9895532734055</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K25" t="n">
-        <v>328.5171544792427</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L25" t="n">
-        <v>683.2064757736634</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M25" t="n">
-        <v>1074.392270743914</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N25" t="n">
-        <v>1451.88378161995</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O25" t="n">
-        <v>1807.311910299713</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P25" t="n">
-        <v>2097.911122221614</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q25" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R25" t="n">
-        <v>2177.872639149549</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S25" t="n">
-        <v>2007.737591668684</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.398243894584</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U25" t="n">
-        <v>1484.213795394888</v>
+        <v>1590.618477329389</v>
       </c>
       <c r="V25" t="n">
-        <v>1202.502328002917</v>
+        <v>1308.907009937418</v>
       </c>
       <c r="W25" t="n">
-        <v>927.6499241754298</v>
+        <v>1034.054606109931</v>
       </c>
       <c r="X25" t="n">
-        <v>685.0860276212348</v>
+        <v>791.4907095557364</v>
       </c>
       <c r="Y25" t="n">
-        <v>458.7432593109769</v>
+        <v>565.1479412454785</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>887.1053432625264</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="C26" t="n">
-        <v>460.2046132758265</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="D26" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="E26" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="F26" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="G26" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H26" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I26" t="n">
         <v>36.91199246082674</v>
@@ -6227,49 +6229,49 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K26" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L26" t="n">
-        <v>493.6978991635576</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="M26" t="n">
         <v>950.4838058662885</v>
       </c>
       <c r="N26" t="n">
-        <v>1407.269712569019</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="O26" t="n">
-        <v>1845.599623041337</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="P26" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q26" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R26" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S26" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T26" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U26" t="n">
-        <v>1712.290977599166</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V26" t="n">
-        <v>1712.290977599166</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W26" t="n">
-        <v>1712.290977599166</v>
+        <v>508.071083982119</v>
       </c>
       <c r="X26" t="n">
-        <v>1712.290977599166</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="Y26" t="n">
-        <v>1306.953707554057</v>
+        <v>369.6772422433207</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6302,28 @@
         <v>36.9119924608267</v>
       </c>
       <c r="I27" t="n">
-        <v>36.9119924608267</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J27" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K27" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="L27" t="n">
-        <v>475.2419029331441</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M27" t="n">
-        <v>475.2419029331441</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N27" t="n">
-        <v>932.027809635875</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="O27" t="n">
-        <v>932.027809635875</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P27" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q27" t="n">
         <v>1845.599623041337</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>595.376908067218</v>
+        <v>904.0400708529421</v>
       </c>
       <c r="C28" t="n">
-        <v>595.376908067218</v>
+        <v>732.0675077318581</v>
       </c>
       <c r="D28" t="n">
-        <v>595.376908067218</v>
+        <v>568.7507348586288</v>
       </c>
       <c r="E28" t="n">
-        <v>429.1687022200715</v>
+        <v>402.5425290114823</v>
       </c>
       <c r="F28" t="n">
-        <v>257.3069279946319</v>
+        <v>230.6807547860427</v>
       </c>
       <c r="G28" t="n">
-        <v>91.04995828886405</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H28" t="n">
         <v>36.91199246082674</v>
@@ -6388,19 +6390,19 @@
         <v>320.9309218908219</v>
       </c>
       <c r="L28" t="n">
-        <v>320.9309218908219</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M28" t="n">
-        <v>712.1167168610727</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N28" t="n">
-        <v>1089.608227737109</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O28" t="n">
-        <v>1445.036356416872</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P28" t="n">
-        <v>1735.635568338772</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q28" t="n">
         <v>1845.599623041337</v>
@@ -6409,25 +6411,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S28" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T28" t="n">
-        <v>1432.125227786372</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U28" t="n">
-        <v>1151.940779286676</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="V28" t="n">
-        <v>870.229311894705</v>
+        <v>1320.548807875266</v>
       </c>
       <c r="W28" t="n">
-        <v>595.376908067218</v>
+        <v>1320.548807875266</v>
       </c>
       <c r="X28" t="n">
-        <v>595.376908067218</v>
+        <v>1320.548807875266</v>
       </c>
       <c r="Y28" t="n">
-        <v>595.376908067218</v>
+        <v>1094.206039565008</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1014.031259917554</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="C29" t="n">
-        <v>1014.031259917554</v>
+        <v>1418.698893054637</v>
       </c>
       <c r="D29" t="n">
-        <v>1014.031259917554</v>
+        <v>995.406272239637</v>
       </c>
       <c r="E29" t="n">
-        <v>1014.031259917554</v>
+        <v>569.4293323874946</v>
       </c>
       <c r="F29" t="n">
-        <v>588.9070781069543</v>
+        <v>569.4293323874946</v>
       </c>
       <c r="G29" t="n">
-        <v>184.5680156964029</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H29" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L29" t="n">
-        <v>475.2419029331441</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M29" t="n">
-        <v>932.027809635875</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="N29" t="n">
-        <v>1388.813716338606</v>
+        <v>358.3859952497894</v>
       </c>
       <c r="O29" t="n">
-        <v>1845.599623041337</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P29" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q29" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R29" t="n">
         <v>1845.599623041337</v>
@@ -6503,10 +6505,10 @@
         <v>1845.599623041337</v>
       </c>
       <c r="X29" t="n">
-        <v>1433.879624209084</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y29" t="n">
-        <v>1433.879624209084</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="30">
@@ -6522,46 +6524,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D30" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E30" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F30" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G30" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H30" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I30" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J30" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K30" t="n">
-        <v>475.2419029331439</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L30" t="n">
-        <v>475.2419029331439</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M30" t="n">
-        <v>475.2419029331439</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N30" t="n">
-        <v>932.0278096358747</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O30" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P30" t="n">
-        <v>1388.813716338606</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q30" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R30" t="n">
         <v>1845.599623041337</v>
@@ -6595,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>632.4625091466944</v>
+        <v>216.4887229903947</v>
       </c>
       <c r="C31" t="n">
-        <v>632.4625091466944</v>
+        <v>44.51615986931071</v>
       </c>
       <c r="D31" t="n">
-        <v>469.1457362734651</v>
+        <v>44.51615986931071</v>
       </c>
       <c r="E31" t="n">
-        <v>302.9375304263186</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F31" t="n">
-        <v>302.9375304263186</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G31" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H31" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K31" t="n">
         <v>76.20565529896515</v>
@@ -6643,28 +6645,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R31" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S31" t="n">
-        <v>1628.425962247645</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T31" t="n">
-        <v>1385.086614473545</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U31" t="n">
-        <v>1385.086614473545</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="V31" t="n">
-        <v>1291.535142723213</v>
+        <v>1150.4137603944</v>
       </c>
       <c r="W31" t="n">
-        <v>1291.535142723213</v>
+        <v>875.5613565669132</v>
       </c>
       <c r="X31" t="n">
-        <v>1048.971246169018</v>
+        <v>632.9974600127183</v>
       </c>
       <c r="Y31" t="n">
-        <v>822.6284778587601</v>
+        <v>406.6546917024604</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1738.206464925269</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="C32" t="n">
-        <v>1311.305734938569</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="D32" t="n">
-        <v>888.013114123569</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="E32" t="n">
-        <v>462.0361742714265</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="F32" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G32" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J32" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K32" t="n">
-        <v>36.91199246082674</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="L32" t="n">
-        <v>493.6978991635576</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="M32" t="n">
-        <v>950.4838058662885</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="N32" t="n">
-        <v>1407.269712569019</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="O32" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="P32" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q32" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R32" t="n">
         <v>1845.599623041337</v>
@@ -6734,16 +6736,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V32" t="n">
-        <v>1845.599623041337</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W32" t="n">
-        <v>1845.599623041337</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="X32" t="n">
-        <v>1845.599623041337</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="Y32" t="n">
-        <v>1845.599623041337</v>
+        <v>739.1194333973433</v>
       </c>
     </row>
     <row r="33">
@@ -6759,37 +6761,37 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D33" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E33" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F33" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G33" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H33" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I33" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J33" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K33" t="n">
-        <v>36.91199246082674</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L33" t="n">
-        <v>493.6978991635576</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M33" t="n">
-        <v>850.0084995511716</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="N33" t="n">
-        <v>1306.794406253902</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="O33" t="n">
         <v>1763.580312956633</v>
@@ -6832,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>911.6745856373313</v>
+        <v>713.2115053602646</v>
       </c>
       <c r="C34" t="n">
-        <v>739.7020225162473</v>
+        <v>541.2389422391806</v>
       </c>
       <c r="D34" t="n">
-        <v>576.385249643018</v>
+        <v>541.2389422391806</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1770437958716</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F34" t="n">
-        <v>238.315269570432</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G34" t="n">
-        <v>72.05829986466412</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H34" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I34" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J34" t="n">
-        <v>78.10605253212941</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K34" t="n">
-        <v>304.6336537379666</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L34" t="n">
-        <v>659.3229750323874</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M34" t="n">
-        <v>1050.508770002638</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N34" t="n">
-        <v>1428.000280878674</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O34" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P34" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q34" t="n">
         <v>1845.599623041337</v>
@@ -6892,16 +6894,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V34" t="n">
-        <v>1845.599623041337</v>
+        <v>1647.13654276427</v>
       </c>
       <c r="W34" t="n">
-        <v>1570.74721921385</v>
+        <v>1372.284138936783</v>
       </c>
       <c r="X34" t="n">
-        <v>1328.183322659655</v>
+        <v>1129.720242382588</v>
       </c>
       <c r="Y34" t="n">
-        <v>1101.840554349397</v>
+        <v>903.3774740723302</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1845.599623041337</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="C35" t="n">
-        <v>1845.599623041337</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="D35" t="n">
-        <v>1422.307002226337</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="E35" t="n">
-        <v>1199.140486464472</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="F35" t="n">
-        <v>774.0163046538721</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G35" t="n">
-        <v>369.6772422433207</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H35" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J35" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K35" t="n">
-        <v>475.942330131692</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L35" t="n">
-        <v>932.7282368344229</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="M35" t="n">
-        <v>932.7282368344229</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="N35" t="n">
-        <v>932.7282368344229</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="O35" t="n">
-        <v>932.7282368344229</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="P35" t="n">
         <v>1389.514143537154</v>
@@ -6971,16 +6973,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V35" t="n">
-        <v>1845.599623041337</v>
+        <v>1540.848053142106</v>
       </c>
       <c r="W35" t="n">
-        <v>1845.599623041337</v>
+        <v>1144.456703442453</v>
       </c>
       <c r="X35" t="n">
-        <v>1845.599623041337</v>
+        <v>1144.456703442453</v>
       </c>
       <c r="Y35" t="n">
-        <v>1845.599623041337</v>
+        <v>739.1194333973433</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C36" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D36" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E36" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F36" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G36" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I36" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J36" t="n">
-        <v>316.0561247023297</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K36" t="n">
-        <v>475.2419029331441</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L36" t="n">
-        <v>475.2419029331441</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M36" t="n">
-        <v>475.2419029331441</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N36" t="n">
-        <v>475.2419029331441</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="O36" t="n">
-        <v>932.027809635875</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="P36" t="n">
         <v>1388.813716338606</v>
@@ -7044,7 +7046,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U36" t="n">
         <v>1437.627243819906</v>
@@ -7053,13 +7055,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W36" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X36" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y36" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>372.20132845514</v>
+        <v>380.7463298073503</v>
       </c>
       <c r="C37" t="n">
-        <v>200.228765334056</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="D37" t="n">
-        <v>36.91199246082674</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="E37" t="n">
-        <v>36.91199246082674</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J37" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K37" t="n">
-        <v>320.9309218908219</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L37" t="n">
         <v>430.8949765933859</v>
@@ -7120,25 +7122,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S37" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T37" t="n">
-        <v>1432.125227786372</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U37" t="n">
-        <v>1397.671864539051</v>
+        <v>1596.382834603327</v>
       </c>
       <c r="V37" t="n">
-        <v>1115.96039714708</v>
+        <v>1314.671367211356</v>
       </c>
       <c r="W37" t="n">
-        <v>841.1079933195929</v>
+        <v>1039.818963383869</v>
       </c>
       <c r="X37" t="n">
-        <v>598.544096765398</v>
+        <v>797.255066829674</v>
       </c>
       <c r="Y37" t="n">
-        <v>372.20132845514</v>
+        <v>570.912298519416</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>889.7896622996691</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="C38" t="n">
-        <v>462.8889323129692</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="D38" t="n">
-        <v>462.8889323129692</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="E38" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="F38" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G38" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J38" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K38" t="n">
-        <v>475.2419029331441</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="L38" t="n">
-        <v>932.027809635875</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="M38" t="n">
-        <v>932.027809635875</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N38" t="n">
         <v>1388.813716338606</v>
@@ -7202,22 +7204,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T38" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U38" t="n">
-        <v>1697.901010831575</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V38" t="n">
-        <v>1697.901010831575</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="W38" t="n">
-        <v>1301.509661131922</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="X38" t="n">
-        <v>889.7896622996691</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="Y38" t="n">
-        <v>889.7896622996691</v>
+        <v>739.1194333973433</v>
       </c>
     </row>
     <row r="39">
@@ -7233,40 +7235,40 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D39" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E39" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F39" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H39" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I39" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J39" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K39" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L39" t="n">
-        <v>493.6978991635576</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="M39" t="n">
-        <v>950.4838058662885</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N39" t="n">
-        <v>1407.269712569019</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O39" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P39" t="n">
         <v>1845.599623041337</v>
@@ -7306,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>911.6745856373313</v>
+        <v>522.9480589938877</v>
       </c>
       <c r="C40" t="n">
-        <v>739.7020225162473</v>
+        <v>522.9480589938877</v>
       </c>
       <c r="D40" t="n">
-        <v>576.385249643018</v>
+        <v>522.9480589938877</v>
       </c>
       <c r="E40" t="n">
-        <v>410.1770437958716</v>
+        <v>522.9480589938877</v>
       </c>
       <c r="F40" t="n">
-        <v>238.315269570432</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G40" t="n">
-        <v>72.05829986466412</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H40" t="n">
-        <v>72.05829986466412</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J40" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K40" t="n">
-        <v>320.9309218908219</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L40" t="n">
-        <v>320.9309218908219</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M40" t="n">
-        <v>712.1167168610727</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N40" t="n">
-        <v>1089.608227737109</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O40" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P40" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q40" t="n">
         <v>1845.599623041337</v>
@@ -7360,22 +7362,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T40" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U40" t="n">
-        <v>1845.599623041337</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V40" t="n">
-        <v>1845.599623041337</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W40" t="n">
-        <v>1570.74721921385</v>
+        <v>765.5119555480826</v>
       </c>
       <c r="X40" t="n">
-        <v>1328.183322659655</v>
+        <v>522.9480589938877</v>
       </c>
       <c r="Y40" t="n">
-        <v>1101.840554349397</v>
+        <v>522.9480589938877</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1773.103336181797</v>
+        <v>1029.359909050153</v>
       </c>
       <c r="C41" t="n">
-        <v>1346.202606195097</v>
+        <v>1029.359909050153</v>
       </c>
       <c r="D41" t="n">
-        <v>922.9099853800977</v>
+        <v>606.0672882351537</v>
       </c>
       <c r="E41" t="n">
-        <v>496.9330455279553</v>
+        <v>606.0672882351537</v>
       </c>
       <c r="F41" t="n">
-        <v>71.80886371735554</v>
+        <v>606.0672882351537</v>
       </c>
       <c r="G41" t="n">
-        <v>71.80886371735554</v>
+        <v>201.7282258246023</v>
       </c>
       <c r="H41" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J41" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K41" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L41" t="n">
-        <v>493.6978991635576</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="M41" t="n">
-        <v>950.4838058662885</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="N41" t="n">
-        <v>1389.514143537154</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="O41" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P41" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q41" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R41" t="n">
         <v>1845.599623041337</v>
@@ -7448,13 +7450,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W41" t="n">
-        <v>1845.599623041337</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="X41" t="n">
-        <v>1845.599623041337</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="Y41" t="n">
-        <v>1773.103336181797</v>
+        <v>1449.208273341683</v>
       </c>
     </row>
     <row r="42">
@@ -7470,46 +7472,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D42" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E42" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F42" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082671</v>
       </c>
       <c r="I42" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273855</v>
       </c>
       <c r="J42" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273855</v>
       </c>
       <c r="K42" t="n">
-        <v>475.2419029331439</v>
+        <v>44.35863542273855</v>
       </c>
       <c r="L42" t="n">
-        <v>932.0278096358747</v>
+        <v>44.35863542273855</v>
       </c>
       <c r="M42" t="n">
-        <v>932.0278096358747</v>
+        <v>44.35863542273855</v>
       </c>
       <c r="N42" t="n">
-        <v>932.0278096358747</v>
+        <v>393.2225928484411</v>
       </c>
       <c r="O42" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="P42" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q42" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R42" t="n">
         <v>1845.599623041337</v>
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>911.6745856373313</v>
+        <v>106.4393219715641</v>
       </c>
       <c r="C43" t="n">
-        <v>739.7020225162473</v>
+        <v>106.4393219715641</v>
       </c>
       <c r="D43" t="n">
-        <v>576.385249643018</v>
+        <v>106.4393219715641</v>
       </c>
       <c r="E43" t="n">
-        <v>410.1770437958716</v>
+        <v>106.4393219715641</v>
       </c>
       <c r="F43" t="n">
-        <v>238.315269570432</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G43" t="n">
-        <v>72.05829986466412</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K43" t="n">
-        <v>76.20565529896515</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L43" t="n">
         <v>430.8949765933859</v>
@@ -7597,22 +7599,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T43" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U43" t="n">
-        <v>1845.599623041337</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V43" t="n">
-        <v>1845.599623041337</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W43" t="n">
-        <v>1570.74721921385</v>
+        <v>765.5119555480826</v>
       </c>
       <c r="X43" t="n">
-        <v>1328.183322659655</v>
+        <v>522.9480589938877</v>
       </c>
       <c r="Y43" t="n">
-        <v>1101.840554349397</v>
+        <v>296.6052906836297</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>875.087676801219</v>
+        <v>421.6439502320924</v>
       </c>
       <c r="C44" t="n">
-        <v>875.087676801219</v>
+        <v>421.6439502320924</v>
       </c>
       <c r="D44" t="n">
-        <v>875.087676801219</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E44" t="n">
-        <v>697.4688842620826</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F44" t="n">
-        <v>697.4688842620826</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G44" t="n">
-        <v>327.1941383983711</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H44" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I44" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J44" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K44" t="n">
-        <v>392.2320382934295</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L44" t="n">
-        <v>622.9191018963475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M44" t="n">
-        <v>622.9191018963475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="N44" t="n">
-        <v>622.9191018963475</v>
+        <v>358.3859952497894</v>
       </c>
       <c r="O44" t="n">
-        <v>985.825380317371</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P44" t="n">
-        <v>985.825380317371</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q44" t="n">
-        <v>1348.731658738395</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R44" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S44" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T44" t="n">
-        <v>1245.36242266493</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U44" t="n">
-        <v>1245.36242266493</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="V44" t="n">
-        <v>1245.36242266493</v>
+        <v>1229.755298763998</v>
       </c>
       <c r="W44" t="n">
-        <v>1245.36242266493</v>
+        <v>833.3639490643452</v>
       </c>
       <c r="X44" t="n">
-        <v>1245.36242266493</v>
+        <v>421.6439502320924</v>
       </c>
       <c r="Y44" t="n">
-        <v>875.087676801219</v>
+        <v>421.6439502320924</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>355.3735555666789</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C45" t="n">
-        <v>237.8676520841837</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D45" t="n">
-        <v>134.0276935994687</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E45" t="n">
-        <v>29.32575987240594</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F45" t="n">
-        <v>29.32575987240594</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G45" t="n">
-        <v>29.32575987240594</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H45" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I45" t="n">
-        <v>29.32575987240594</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J45" t="n">
-        <v>301.023249151997</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K45" t="n">
-        <v>301.023249151997</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L45" t="n">
-        <v>301.023249151997</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M45" t="n">
-        <v>663.9295275730206</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N45" t="n">
-        <v>1026.835805994044</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O45" t="n">
-        <v>1026.835805994044</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="P45" t="n">
-        <v>1103.381715199273</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q45" t="n">
-        <v>1466.287993620297</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R45" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S45" t="n">
-        <v>1466.287993620297</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T45" t="n">
-        <v>1324.408057917975</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U45" t="n">
-        <v>1139.639861837612</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V45" t="n">
-        <v>934.6667229768782</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W45" t="n">
-        <v>738.1453458100954</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X45" t="n">
-        <v>574.6679995767582</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y45" t="n">
-        <v>484.3005649867416</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>192.6425327456352</v>
+        <v>349.7786697456642</v>
       </c>
       <c r="C46" t="n">
-        <v>192.6425327456352</v>
+        <v>177.8061066245802</v>
       </c>
       <c r="D46" t="n">
-        <v>29.32575987240594</v>
+        <v>177.8061066245802</v>
       </c>
       <c r="E46" t="n">
-        <v>29.32575987240594</v>
+        <v>177.8061066245802</v>
       </c>
       <c r="F46" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G46" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H46" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I46" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J46" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K46" t="n">
-        <v>29.32575987240594</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L46" t="n">
-        <v>384.0150811668267</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M46" t="n">
-        <v>746.9213595878502</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N46" t="n">
-        <v>1109.827638008874</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O46" t="n">
-        <v>1465.255766688637</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P46" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q46" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R46" t="n">
-        <v>1419.24938030747</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S46" t="n">
-        <v>1249.114332826605</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T46" t="n">
-        <v>1005.774985052505</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U46" t="n">
-        <v>725.5905365528095</v>
+        <v>1565.415174541641</v>
       </c>
       <c r="V46" t="n">
-        <v>710.058833127317</v>
+        <v>1283.70370714967</v>
       </c>
       <c r="W46" t="n">
-        <v>435.2064292998301</v>
+        <v>1008.851303322183</v>
       </c>
       <c r="X46" t="n">
-        <v>192.6425327456352</v>
+        <v>766.2874067679878</v>
       </c>
       <c r="Y46" t="n">
-        <v>192.6425327456352</v>
+        <v>539.9446384577299</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>481.0695277581962</v>
       </c>
       <c r="M2" t="n">
-        <v>456.5787613602907</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8057,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8064,22 +8066,22 @@
         <v>483.9149924745637</v>
       </c>
       <c r="M3" t="n">
-        <v>108.5645695103311</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>464.5283265304018</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8146,16 +8148,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521331</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>68.71811917318276</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M5" t="n">
-        <v>114.6301304286942</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>456.5384578168827</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M6" t="n">
-        <v>383.0064778735544</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>183.9656051068836</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8383,13 +8385,13 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>212.9282671456378</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318252</v>
       </c>
       <c r="Q7" t="n">
         <v>24.61956276478495</v>
@@ -8450,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>455.6196014764236</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>481.7770299789514</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8474,7 +8476,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>107.8670228313365</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>465.8542658379013</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O9" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8611,7 +8613,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608413</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8629,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>64.31013128815719</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>362.3257551502136</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>498.6795285947802</v>
+        <v>457.1346235160601</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8763,31 +8765,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M12" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N12" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>99.71676862514317</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>382.656735650205</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8848,13 +8850,13 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K13" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>62.78265149768077</v>
       </c>
       <c r="M13" t="n">
-        <v>329.1202152123216</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N13" t="n">
         <v>402.0534574160406</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>457.1346235160602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>480.1484446815972</v>
       </c>
       <c r="P14" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,25 +9008,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>465.1567191589062</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M15" t="n">
-        <v>484.4966862726622</v>
+        <v>465.8542658379013</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9082,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
@@ -9100,7 +9102,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318252</v>
       </c>
       <c r="Q16" t="n">
         <v>24.61956276478495</v>
@@ -9167,19 +9169,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N17" t="n">
-        <v>480.0371081600191</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O17" t="n">
-        <v>498.7908651163583</v>
+        <v>480.1484446815974</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9240,31 +9242,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N18" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O18" t="n">
-        <v>484.5717954825564</v>
+        <v>383.0815870834487</v>
       </c>
       <c r="P18" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>191.0626152513281</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9334,13 +9336,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>299.5718579722076</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>360.4858157331554</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M20" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>181.5591018660332</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>593.8031749258255</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9483,22 +9485,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>579.3245936279221</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P21" t="n">
-        <v>180.0446044646217</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>465.5045236145516</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9556,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
@@ -9577,7 +9579,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>591.9924139104035</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L23" t="n">
-        <v>572.0660045132436</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M23" t="n">
-        <v>593.6590760150259</v>
+        <v>114.630130428694</v>
       </c>
       <c r="N23" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>35.03264989479647</v>
@@ -9714,25 +9716,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>178.8848775931265</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>579.3245936279221</v>
+        <v>465.8542658379013</v>
       </c>
       <c r="N24" t="n">
-        <v>577.5708413291358</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P24" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9793,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K25" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9814,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9875,28 +9877,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L26" t="n">
         <v>499.7119481929572</v>
       </c>
       <c r="M26" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>480.1484446815972</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>362.2965767485775</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
@@ -9957,22 +9959,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>190.8306636765794</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N27" t="n">
         <v>482.7429339738759</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>183.9656051068834</v>
       </c>
       <c r="P27" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10036,10 +10038,10 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10051,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>135.694365494648</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10115,25 +10117,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>481.069527758196</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>498.6795285947802</v>
+        <v>362.0008377727921</v>
       </c>
       <c r="O29" t="n">
-        <v>498.7908651163583</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>465.1567191589062</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>484.5717954825564</v>
+        <v>101.1178171425369</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q30" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,7 +10272,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K31" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>454.912099255668</v>
       </c>
       <c r="L32" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>480.1484446815972</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,25 +10424,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L33" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M33" t="n">
-        <v>383.0064778735542</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N33" t="n">
-        <v>482.7429339738759</v>
+        <v>99.2889556338564</v>
       </c>
       <c r="O33" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10504,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.24691767208638</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K34" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10519,13 +10521,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10586,10 +10588,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>112.9634683240717</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L35" t="n">
-        <v>499.7119481929572</v>
+        <v>115.5109099618852</v>
       </c>
       <c r="M35" t="n">
         <v>37.43126289943181</v>
@@ -10601,7 +10603,7 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>183.1929492179944</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10677,10 +10679,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>484.5717954825564</v>
+        <v>465.9293750477955</v>
       </c>
       <c r="P36" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q36" t="n">
         <v>484.1469440493127</v>
@@ -10741,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L37" t="n">
-        <v>132.9935626255638</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
         <v>417.7126065281028</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>112.2559661033163</v>
+        <v>478.5220861203826</v>
       </c>
       <c r="L38" t="n">
-        <v>499.7119481929572</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M38" t="n">
         <v>37.43126289943181</v>
@@ -10835,7 +10837,7 @@
         <v>498.6795285947802</v>
       </c>
       <c r="O38" t="n">
-        <v>498.7908651163583</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P38" t="n">
         <v>37.5753618102313</v>
@@ -10902,22 +10904,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L39" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M39" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>465.9293750477951</v>
+        <v>465.9293750477955</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -10978,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L40" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
@@ -10993,13 +10995,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>364.3093421868743</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>499.7119481929572</v>
+        <v>458.1670431142371</v>
       </c>
       <c r="M41" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>480.7446103807745</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
@@ -11081,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>465.1567191589062</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>373.7308639970796</v>
       </c>
       <c r="O42" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P42" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11218,10 +11220,10 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K43" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>191.0656113368345</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
@@ -11297,25 +11299,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>402.3365991998836</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>271.3292783951663</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>362.0008377727921</v>
       </c>
       <c r="O44" t="n">
-        <v>403.9629577610984</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q44" t="n">
-        <v>402.6966730096723</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>389.6687789174023</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>387.915026618616</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425368</v>
       </c>
       <c r="P45" t="n">
-        <v>99.08994141213091</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q45" t="n">
-        <v>389.3190366940528</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11455,22 +11457,22 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>389.1474382965601</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>387.3208993806747</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>23.42345412430998</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
         <v>24.61956276478495</v>
@@ -22550,7 +22552,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,10 +22561,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22598,16 +22600,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>82.19280222672964</v>
       </c>
       <c r="U2" t="n">
-        <v>2.946083008113163</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -22765,10 +22767,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>206.3343440542548</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>149.2323884507979</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>96.78073631290707</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22841,7 +22843,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -22850,7 +22852,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>294.9646708097513</v>
       </c>
     </row>
     <row r="6">
@@ -22942,22 +22944,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22987,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>85.53604314152915</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>252.9025712339535</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23021,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -23033,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>142.3913302382136</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>304.6812607283046</v>
       </c>
     </row>
     <row r="9">
@@ -23179,25 +23181,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>99.60164079042598</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>252.9025712339535</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>264.2035414822087</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>181.5886261675801</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -23318,10 +23320,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23476,7 +23478,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>206.3343440542548</v>
+        <v>206.334344054255</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23504,10 +23506,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23552,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>291.7312722548727</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>270.5928955225201</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -23668,7 +23670,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>53.69563757240819</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23701,7 +23703,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>99.6016407904262</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23732,19 +23734,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>301.2835723090229</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -23789,10 +23791,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>184.5126132758344</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>112.8421857026147</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -23944,13 +23946,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>252.9025712339535</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23969,13 +23971,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>251.782241228811</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>181.7396626967973</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -24035,7 +24037,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>125.2003492264198</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>115.7088052046618</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24206,10 +24208,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>199.5101717857767</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
         <v>34.5479025439635</v>
@@ -24266,13 +24268,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>268.3324124055581</v>
       </c>
     </row>
     <row r="24">
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>24.95126975987105</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -24458,10 +24460,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>123.7958013218028</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>270.5928955225199</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>115.1216311136735</v>
       </c>
       <c r="H28" t="n">
-        <v>88.76171963717022</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24649,25 +24651,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>167.9931999997502</v>
       </c>
       <c r="H29" t="n">
-        <v>183.2581342814487</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24743,7 +24745,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>157.0179980542758</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,10 +24897,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>186.2783956852225</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>309.3306541137072</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -24974,16 +24976,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>52.21046652477486</v>
       </c>
     </row>
     <row r="33">
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>107.5634614771281</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25132,7 +25134,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>82.41590324375542</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25157,13 +25159,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>200.7823198493745</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25211,16 +25213,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>52.21046652477492</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25360,13 +25362,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>243.2737743998512</v>
+        <v>30.65798346106922</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25391,22 +25393,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -25442,19 +25444,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>109.5497342218875</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>125.4142447354812</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>94.69103900821901</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>63.97603824732778</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>131.7216237105677</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>329.5125733537143</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25786,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>101.3111002675552</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>107.5634614771281</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25837,13 +25839,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25868,19 +25870,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>38.17505641329666</v>
       </c>
       <c r="E44" t="n">
-        <v>245.874565839876</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>33.72367338137155</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25916,22 +25918,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>34.71189893958427</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -25953,13 +25955,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26010,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>48.83219951612408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>30.65798346106922</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.5179663268139</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>451313.51119466</v>
+        <v>451313.5111946599</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>451313.51119466</v>
+        <v>451313.5111946599</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>508540.6818456261</v>
+        <v>451313.5111946599</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>508540.681845626</v>
+        <v>451313.51119466</v>
       </c>
     </row>
     <row r="10">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>370665.181898897</v>
+        <v>451313.51119466</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>90209.62182436744</v>
+      </c>
+      <c r="C2" t="n">
         <v>90209.62182436745</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>90209.62182436744</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>90209.62182436744</v>
+      </c>
+      <c r="F2" t="n">
         <v>90209.62182436747</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
+        <v>90209.62182436745</v>
+      </c>
+      <c r="H2" t="n">
         <v>90209.62182436748</v>
       </c>
-      <c r="F2" t="n">
-        <v>90209.62182436748</v>
-      </c>
-      <c r="G2" t="n">
-        <v>90209.62182436751</v>
-      </c>
-      <c r="H2" t="n">
-        <v>101647.3149045897</v>
-      </c>
       <c r="I2" t="n">
-        <v>101647.3149045896</v>
+        <v>90209.62182436747</v>
       </c>
       <c r="J2" t="n">
-        <v>90209.6218243675</v>
+        <v>90209.62182436747</v>
       </c>
       <c r="K2" t="n">
-        <v>90209.6218243675</v>
+        <v>90209.62182436747</v>
       </c>
       <c r="L2" t="n">
-        <v>90209.6218243675</v>
+        <v>90209.62182436747</v>
       </c>
       <c r="M2" t="n">
-        <v>90209.62182436744</v>
+        <v>90209.62182436747</v>
       </c>
       <c r="N2" t="n">
-        <v>90209.62182436744</v>
+        <v>90209.62182436745</v>
       </c>
       <c r="O2" t="n">
-        <v>90209.62182436751</v>
+        <v>90209.62182436741</v>
       </c>
       <c r="P2" t="n">
-        <v>74090.8651669114</v>
+        <v>90209.62182436747</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>95911.36395069725</v>
+        <v>120722.5169427569</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26433,10 +26435,10 @@
         <v>15700.44267092141</v>
       </c>
       <c r="H4" t="n">
-        <v>17703.77972371005</v>
+        <v>15700.44267092141</v>
       </c>
       <c r="I4" t="n">
-        <v>17703.77972371005</v>
+        <v>15700.44267092141</v>
       </c>
       <c r="J4" t="n">
         <v>15700.44267092141</v>
@@ -26451,13 +26453,13 @@
         <v>15700.44267092141</v>
       </c>
       <c r="N4" t="n">
-        <v>15700.4426709214</v>
+        <v>15700.44267092141</v>
       </c>
       <c r="O4" t="n">
         <v>15700.44267092141</v>
       </c>
       <c r="P4" t="n">
-        <v>12877.20705598761</v>
+        <v>15700.44267092141</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="G5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742812</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742812</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="J5" t="n">
         <v>28053.11427022832</v>
       </c>
       <c r="K5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="L5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="M5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="N5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="O5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="P5" t="n">
-        <v>22287.57750302851</v>
+        <v>28053.11427022831</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-141797.2557349027</v>
       </c>
       <c r="C6" t="n">
+        <v>12828.46488321773</v>
+      </c>
+      <c r="D6" t="n">
         <v>12828.46488321772</v>
       </c>
-      <c r="D6" t="n">
-        <v>12828.46488321775</v>
-      </c>
       <c r="E6" t="n">
-        <v>46456.06488321776</v>
+        <v>46456.06488321772</v>
       </c>
       <c r="F6" t="n">
-        <v>46456.06488321776</v>
+        <v>46456.06488321775</v>
       </c>
       <c r="G6" t="n">
-        <v>46456.06488321779</v>
+        <v>46456.06488321774</v>
       </c>
       <c r="H6" t="n">
-        <v>24539.46128783617</v>
+        <v>46456.06488321777</v>
       </c>
       <c r="I6" t="n">
-        <v>50124.88414345148</v>
+        <v>46456.06488321775</v>
       </c>
       <c r="J6" t="n">
-        <v>-49455.29906747949</v>
+        <v>-74266.45205953912</v>
       </c>
       <c r="K6" t="n">
-        <v>46456.06488321778</v>
+        <v>46456.06488321775</v>
       </c>
       <c r="L6" t="n">
-        <v>46456.06488321778</v>
+        <v>46456.06488321775</v>
       </c>
       <c r="M6" t="n">
-        <v>46456.06488321772</v>
+        <v>46456.06488321775</v>
       </c>
       <c r="N6" t="n">
-        <v>46456.06488321772</v>
+        <v>46456.06488321774</v>
       </c>
       <c r="O6" t="n">
-        <v>46456.06488321779</v>
+        <v>46456.0648832177</v>
       </c>
       <c r="P6" t="n">
-        <v>38926.08060789528</v>
+        <v>46456.06488321775</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="I4" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="J4" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P4" t="n">
-        <v>366.5719984050743</v>
+        <v>461.3999057603341</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>366.5719984050743</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="M2" t="n">
-        <v>419.1474984608589</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M3" t="n">
-        <v>85.46778899800312</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34866,16 +34868,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>381.3045564404402</v>
+        <v>5.824357619612921</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>46.33731851519627</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M5" t="n">
-        <v>77.19886752926243</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M6" t="n">
-        <v>359.9096973612264</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>160.7937153846614</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35103,13 +35105,13 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>192.1793661700374</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519604</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>419.8550006816142</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>443.4649875463285</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35194,7 +35196,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>85.46778899800312</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35349,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>39.69056852337224</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M12" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>77.9459274203145</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>359.9096973612264</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35568,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
-        <v>358.2720417115361</v>
+        <v>40.86389160197955</v>
       </c>
       <c r="M13" t="n">
-        <v>306.5447753208358</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
         <v>381.3045564404402</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>419.8550006816142</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="P14" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M15" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
         <v>358.2720417115361</v>
@@ -35820,7 +35822,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519604</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35887,19 +35889,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N17" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O17" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N18" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O18" t="n">
-        <v>461.3999057603342</v>
+        <v>359.9096973612264</v>
       </c>
       <c r="P18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>168.3155769623496</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36054,13 +36056,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>359.0183117977405</v>
+        <v>277.0726704737831</v>
       </c>
       <c r="P19" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.7212149383461</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P21" t="n">
-        <v>158.2737632597931</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L22" t="n">
         <v>358.2720417115361</v>
@@ -36297,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L23" t="n">
-        <v>533.7539620806207</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M23" t="n">
-        <v>556.2278131155941</v>
+        <v>77.1988675292622</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>556.2278131155941</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="N24" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P24" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L25" t="n">
         <v>358.2720417115361</v>
@@ -36534,7 +36536,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L26" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="M26" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>324.7212149383462</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
@@ -36677,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>168.3155769623498</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N27" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="P27" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36756,10 +36758,10 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M28" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N28" t="n">
         <v>381.3045564404402</v>
@@ -36771,7 +36773,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>111.0748027298631</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>461.3999057603342</v>
+        <v>324.7212149383461</v>
       </c>
       <c r="O29" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>442.7574853255729</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>461.3999057603342</v>
+        <v>77.94592742031473</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q30" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="L32" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L33" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M33" t="n">
-        <v>359.9096973612262</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N33" t="n">
-        <v>461.3999057603342</v>
+        <v>77.94592742031473</v>
       </c>
       <c r="O33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>41.61016168818452</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L34" t="n">
         <v>358.2720417115361</v>
@@ -37239,13 +37241,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P34" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q34" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,10 +37308,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>77.19886752926237</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L35" t="n">
-        <v>461.3999057603342</v>
+        <v>77.19886752926232</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>160.7937153846611</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="P36" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q36" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L37" t="n">
-        <v>111.0748027298626</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M37" t="n">
         <v>395.137166636617</v>
@@ -37540,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>76.49136530850691</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="L38" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O38" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L39" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M39" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>442.7574853255729</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M40" t="n">
         <v>395.137166636617</v>
@@ -37713,13 +37715,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O40" t="n">
-        <v>341.8101546884499</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P40" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="M41" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>352.3878357835379</v>
       </c>
       <c r="O42" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P42" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L43" t="n">
-        <v>358.2720417115361</v>
+        <v>169.1468514411333</v>
       </c>
       <c r="M43" t="n">
         <v>395.137166636617</v>
@@ -38017,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>233.0172359625434</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>324.7212149383461</v>
       </c>
       <c r="O44" t="n">
-        <v>366.5719984050743</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q44" t="n">
-        <v>366.5719984050743</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>77.94592742031462</v>
       </c>
       <c r="P45" t="n">
-        <v>77.31910020730226</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q45" t="n">
-        <v>366.5719984050743</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L46" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>366.5719984050743</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
-        <v>366.5719984050743</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>1.042653466323497</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
